--- a/static/files/table_states.xlsx
+++ b/static/files/table_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub\Puns\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDBC8CC-DFD3-4234-92B1-8E148EFE1690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A4815-7963-4B0B-9EA5-0358DF6721D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{5CA77799-10A9-4DBE-915B-6A8F61C8B51E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24450" windowHeight="14620" xr2:uid="{5CA77799-10A9-4DBE-915B-6A8F61C8B51E}"/>
   </bookViews>
   <sheets>
     <sheet name="table states" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -110,32 +110,32 @@
     <t>AGREE</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>[0.516, 0.190, 0.240, 0.164, 0.260]</t>
   </si>
   <si>
-    <t>Models (before feedback)</t>
-  </si>
-  <si>
-    <t>Models (after feedback)</t>
-  </si>
-  <si>
-    <t>Answer (before feedback)</t>
-  </si>
-  <si>
-    <t>Answer (after feedback)</t>
-  </si>
-  <si>
     <t>user feedback</t>
+  </si>
+  <si>
+    <t>AFTER FEEDBACK</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>BEFORE FEEDBACK</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -181,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,36 +206,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,369 +562,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FFCFA9-B2C5-408B-816A-91501674C651}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="3"/>
-    <col min="12" max="12" width="14.90625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="2"/>
+    <col min="12" max="12" width="14.90625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="8">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="8">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>